--- a/outputs-HGR-r202/g__CAG-180.xlsx
+++ b/outputs-HGR-r202/g__CAG-180.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>s__CAG-180 sp900545625</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900545625</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>s__CAG-180 sp004556705</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp004556705</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>s__CAG-180 sp004556705</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp004556705</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>s__CAG-180 sp004556705</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp004556705</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>s__CAG-180 sp000432435</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp000432435</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>s__CAG-180 sp900545625</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900545625</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>s__CAG-180 sp004556705</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp004556705</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>s__CAG-180 sp900545625</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900545625</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>s__CAG-180 sp900545625</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900545625</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>s__CAG-180 sp004556705</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp004556705</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>s__CAG-180 sp004556705</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp004556705</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -790,6 +850,11 @@
         <v>0.9565795630549287</v>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp004556705</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>s__CAG-180 sp004556705</t>
         </is>

--- a/outputs-HGR-r202/g__CAG-180.xlsx
+++ b/outputs-HGR-r202/g__CAG-180.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1087,30 +1087,94 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
+          <t>even_MAG-GUT87091.fa</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.09232233375154288</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.0002465808731838663</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0002626917642440946</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9071683936110292</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9071683936110292</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900545625</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900545625</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
           <t>even_MAG-GUT8790.fa</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>0.001121476981650289</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>0.000134261349204026</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>7.394228620427532e-07</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>0.9987435222462836</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>0.9987435222462836</v>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>s__CAG-180 sp900545625</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900545625</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900545625</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88862.fa</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.02921743269096497</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.517062768493316e-05</v>
+      </c>
+      <c r="D23" t="n">
+        <v>4.569526042276437e-05</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9706917014209273</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9706917014209273</v>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>s__CAG-180 sp900545625</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>s__CAG-180 sp900545625</t>
         </is>
